--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,11 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
   <si>
+    <t xml:space="preserve">ATTACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUFF</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORMAL</t>
   </si>
   <si>
@@ -49,7 +58,10 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
+    <t xml:space="preserve">SkillType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RangeType</t>
   </si>
   <si>
     <t xml:space="preserve">Distance</t>
@@ -299,22 +311,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:I29"/>
+  <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,114 +343,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
-        <v>2</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
@@ -446,96 +452,127 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" s="5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>5</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="I13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="J13" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
@@ -546,6 +583,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
@@ -556,6 +594,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -566,6 +605,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -576,6 +616,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -586,6 +627,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -596,6 +638,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -606,6 +649,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -616,6 +660,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -626,6 +671,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -636,6 +682,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -646,6 +693,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -656,6 +704,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -666,6 +715,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -676,6 +726,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -686,6 +737,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
@@ -696,14 +748,30 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D12" type="list">
-      <formula1>Sheet1!$B$3:$D$3</formula1>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E13" type="list">
+      <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D13:D29" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E14:E30" type="list">
+      <formula1>Sheet1!$B$4:$E$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D30" type="list">
       <formula1>Sheet1!$B$3:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">BUFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUFF</t>
   </si>
   <si>
     <t xml:space="preserve">NORMAL</t>
@@ -342,105 +345,108 @@
       <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>100</v>
@@ -463,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>100</v>
@@ -492,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>100</v>
@@ -521,13 +527,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -550,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
@@ -772,7 +778,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D30" type="list">
-      <formula1>Sheet1!$B$3:$D$3</formula1>
+      <formula1>Sheet1!$B$3:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -317,7 +317,7 @@
   <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">通常スキル</t>
   </si>
   <si>
-    <t xml:space="preserve">円形範囲スキル</t>
+    <t xml:space="preserve">円形回復スキル</t>
   </si>
   <si>
     <t xml:space="preserve">長方形範囲スキル</t>
@@ -317,7 +317,7 @@
   <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,7 +530,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -103,13 +103,40 @@
     <t xml:space="preserve">アンパンチ（アンパン通常攻撃）</t>
   </si>
   <si>
-    <t xml:space="preserve">通常スキル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">円形回復スキル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長方形範囲スキル</t>
+    <t xml:space="preserve">ファイターレベル１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイターレベル２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイターレベル３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソーサラーレベル１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソーサラーレベル２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソーサラーレベル３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヒーラーレベル１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヒーラーレベル２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヒーラーレベル３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランサーレベル１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランサーレベル２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランサーレベル３</t>
   </si>
 </sst>
 </file>
@@ -314,10 +341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,16 +557,16 @@
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>0</v>
@@ -562,122 +589,284 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>5</v>
-      </c>
       <c r="J13" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -734,50 +923,17 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E13" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E10" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E14:E30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E11:E27" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D27" type="list">
       <formula1>Sheet1!$B$3:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -341,10 +341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,28 +641,28 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
@@ -682,16 +682,16 @@
         <v>500</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,28 +699,28 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,16 +728,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,28 +757,28 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,28 +815,28 @@
         <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>300</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>500</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,62 +844,116 @@
         <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="n">
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="n">
+      <c r="H25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J25" s="5" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -923,17 +977,50 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E10" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E10 E14 E18 E22" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E11:E27" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E11:E13 E15:E17 E19:E21 E23:E30" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D27" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D30" type="list">
       <formula1>Sheet1!$B$3:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">ランサーレベル３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薬草</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
   <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22:J22"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -956,15 +959,33 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="B26" s="4" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">DEBUFF</t>
   </si>
   <si>
+    <t xml:space="preserve">ITEM_HEAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORMAL</t>
   </si>
   <si>
@@ -80,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">RecastTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonusStr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonusMnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonusVit</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -344,10 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:M30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,105 +390,126 @@
       <c r="E3" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>300</v>
@@ -491,6 +524,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -499,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>300</v>
@@ -520,6 +562,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,13 +579,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>300</v>
@@ -550,6 +601,15 @@
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>300</v>
@@ -579,6 +639,15 @@
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>300</v>
@@ -609,19 +678,28 @@
       <c r="J13" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="K13" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>300</v>
@@ -636,6 +714,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -644,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>300</v>
@@ -666,6 +753,15 @@
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,13 +769,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>500</v>
@@ -695,6 +791,15 @@
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,13 +807,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>500</v>
@@ -725,19 +830,28 @@
       <c r="J17" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="K17" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>300</v>
@@ -752,6 +866,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -760,13 +883,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>300</v>
@@ -782,6 +905,15 @@
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,13 +921,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -810,6 +942,15 @@
         <v>5</v>
       </c>
       <c r="J20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,13 +959,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>0</v>
@@ -840,6 +981,15 @@
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,13 +997,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>300</v>
@@ -868,6 +1018,15 @@
         <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,13 +1035,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -898,6 +1057,15 @@
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,13 +1073,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -927,6 +1095,15 @@
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,13 +1111,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0</v>
@@ -956,6 +1133,15 @@
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,13 +1149,13 @@
         <v>1001</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
@@ -985,6 +1171,15 @@
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,6 +1192,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -1008,6 +1206,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
@@ -1019,6 +1220,9 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
@@ -1030,6 +1234,9 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1042,7 +1249,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D30" type="list">
-      <formula1>Sheet1!$B$3:$E$3</formula1>
+      <formula1>Sheet1!$B$3:$F$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -49,6 +49,12 @@
     <t xml:space="preserve">RANGE_BOX</t>
   </si>
   <si>
+    <t xml:space="preserve">PHYSICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">スキルの発動範囲</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">RangeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalcType</t>
   </si>
   <si>
     <t xml:space="preserve">Distance</t>
@@ -356,22 +365,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:M30"/>
+  <dimension ref="A3:N31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,153 +417,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="I7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>300</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" s="5" t="n">
         <v>0</v>
       </c>
@@ -565,21 +553,24 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -587,37 +578,40 @@
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -625,75 +619,81 @@
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>20</v>
-      </c>
       <c r="L12" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>300</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>15</v>
-      </c>
       <c r="K13" s="5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -701,12 +701,12 @@
       <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
@@ -714,24 +714,27 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -739,75 +742,81 @@
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>500</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>20</v>
-      </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1</v>
@@ -815,75 +824,81 @@
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>1000</v>
-      </c>
       <c r="H17" s="5" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>300</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1</v>
@@ -891,151 +906,163 @@
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>0</v>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" s="5" t="n">
         <v>10</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>300</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1043,158 +1070,197 @@
       <c r="E23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <v>0</v>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>20</v>
-      </c>
       <c r="L24" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>7</v>
-      </c>
       <c r="J25" s="5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4" t="n">
         <v>1001</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="n">
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5" t="n">
+      <c r="L27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="N27" s="5" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -1209,6 +1275,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
@@ -1223,6 +1290,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
@@ -1237,19 +1305,39 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E10 E14 E18 E22" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E10:E11 E15 E19 E23" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E11:E13 E15:E17 E19:E21 E23:E30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E12:E14 E16:E18 E20:E22 E24:E31" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D30" type="list">
-      <formula1>Sheet1!$B$3:$F$3</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D10:D31" type="list">
+      <formula1>Sheet1!$B$3:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F31" type="list">
+      <formula1>Sheet1!$B$5:$C$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">BonusStr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonusInt</t>
   </si>
   <si>
     <t xml:space="preserve">BonusMnd</t>
@@ -365,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N31"/>
+  <dimension ref="A3:O31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,57 +482,63 @@
       <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
@@ -562,6 +571,9 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -570,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -603,6 +615,9 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -611,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -644,6 +659,9 @@
         <v>0</v>
       </c>
       <c r="N12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -652,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -685,6 +703,9 @@
         <v>0</v>
       </c>
       <c r="N13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -726,6 +747,9 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -767,6 +791,9 @@
         <v>0</v>
       </c>
       <c r="N15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
@@ -808,6 +835,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1</v>
@@ -846,9 +876,12 @@
         <v>20</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>1</v>
@@ -887,9 +920,12 @@
         <v>30</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1</v>
@@ -928,9 +964,12 @@
         <v>10</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>1</v>
@@ -972,6 +1011,9 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
@@ -1013,6 +1055,9 @@
         <v>10</v>
       </c>
       <c r="N21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1021,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -1054,6 +1099,9 @@
         <v>20</v>
       </c>
       <c r="N22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" s="5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1062,7 +1110,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1092,9 +1140,12 @@
         <v>10</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1103,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
@@ -1136,6 +1187,9 @@
         <v>0</v>
       </c>
       <c r="N24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>1</v>
@@ -1177,6 +1231,9 @@
         <v>0</v>
       </c>
       <c r="N25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>1</v>
@@ -1218,6 +1275,9 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,7 +1286,7 @@
         <v>1001</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1256,9 +1316,12 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1276,6 +1339,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
@@ -1291,6 +1355,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
@@ -1306,6 +1371,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
@@ -1321,6 +1387,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">BonusVit</t>
   </si>
   <si>
+    <t xml:space="preserve">BuffId</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
@@ -164,6 +167,18 @@
   </si>
   <si>
     <t xml:space="preserve">薬草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スピードアップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動回復</t>
+  </si>
+  <si>
+    <t xml:space="preserve">毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻痺</t>
   </si>
 </sst>
 </file>
@@ -368,10 +383,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O31"/>
+  <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,60 +500,66 @@
       <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
@@ -574,6 +595,9 @@
         <v>0</v>
       </c>
       <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -618,6 +642,9 @@
         <v>0</v>
       </c>
       <c r="O11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -626,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -662,6 +689,9 @@
         <v>0</v>
       </c>
       <c r="O12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -670,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -706,6 +736,9 @@
         <v>0</v>
       </c>
       <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -714,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -752,13 +785,16 @@
       <c r="O14" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="P14" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -794,6 +830,9 @@
         <v>0</v>
       </c>
       <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -802,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
@@ -838,6 +877,9 @@
         <v>0</v>
       </c>
       <c r="O16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -846,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1</v>
@@ -882,6 +924,9 @@
         <v>0</v>
       </c>
       <c r="O17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>1</v>
@@ -928,13 +973,16 @@
       <c r="O18" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="P18" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1</v>
@@ -970,6 +1018,9 @@
         <v>0</v>
       </c>
       <c r="O19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -978,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>1</v>
@@ -1014,6 +1065,9 @@
         <v>0</v>
       </c>
       <c r="O20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1022,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
@@ -1059,6 +1113,9 @@
       </c>
       <c r="O21" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -1103,6 +1160,9 @@
       </c>
       <c r="O22" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1146,6 +1206,9 @@
         <v>0</v>
       </c>
       <c r="O23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
@@ -1190,6 +1253,9 @@
         <v>0</v>
       </c>
       <c r="O24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1198,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>1</v>
@@ -1234,6 +1300,9 @@
         <v>0</v>
       </c>
       <c r="O25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>1</v>
@@ -1278,6 +1347,9 @@
         <v>0</v>
       </c>
       <c r="O26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +1358,7 @@
         <v>1001</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1324,70 +1396,214 @@
       <c r="O27" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="P27" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="B28" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="B29" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="B30" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="B31" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1395,15 +1611,15 @@
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E12:E14 E16:E18 E20:E22 E24:E31" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E12:E14 E16:E18 E20:E22 E24:E32" type="list">
       <formula1>Sheet1!$B$4:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D10:D31" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D10:D32" type="list">
       <formula1>Sheet1!$B$3:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F31" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F32" type="list">
       <formula1>Sheet1!$B$5:$C$5</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">BonusVit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VolatileHate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccumulateHate</t>
   </si>
   <si>
     <t xml:space="preserve">BuffId</t>
@@ -383,10 +389,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:P32"/>
+  <dimension ref="A3:R32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,7 +404,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,63 +512,75 @@
       <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
@@ -598,6 +619,12 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -606,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -645,6 +672,12 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -653,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -692,6 +725,12 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -700,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -739,6 +778,12 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -747,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -786,6 +831,12 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
@@ -833,6 +884,12 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -841,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
@@ -880,6 +937,12 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1</v>
@@ -927,6 +990,12 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -935,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>1</v>
@@ -974,6 +1043,12 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -982,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1</v>
@@ -1021,6 +1096,12 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1029,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>1</v>
@@ -1068,6 +1149,12 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
@@ -1115,6 +1202,12 @@
         <v>10</v>
       </c>
       <c r="P21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1123,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -1162,6 +1255,12 @@
         <v>20</v>
       </c>
       <c r="P22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1170,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1209,6 +1308,12 @@
         <v>0</v>
       </c>
       <c r="P23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
@@ -1256,6 +1361,12 @@
         <v>0</v>
       </c>
       <c r="P24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>1</v>
@@ -1303,6 +1414,12 @@
         <v>0</v>
       </c>
       <c r="P25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1311,7 +1428,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>1</v>
@@ -1350,6 +1467,12 @@
         <v>0</v>
       </c>
       <c r="P26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1358,7 +1481,7 @@
         <v>1001</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1397,6 +1520,12 @@
         <v>20</v>
       </c>
       <c r="P27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1405,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>3</v>
@@ -1444,6 +1573,12 @@
         <v>0</v>
       </c>
       <c r="P28" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1452,7 +1587,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -1491,6 +1626,12 @@
         <v>0</v>
       </c>
       <c r="P29" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1499,7 +1640,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>4</v>
@@ -1538,6 +1679,12 @@
         <v>0</v>
       </c>
       <c r="P30" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1546,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
@@ -1585,6 +1732,12 @@
         <v>0</v>
       </c>
       <c r="P31" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1604,6 +1757,8 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/Master/MasterData/Skill.xlsx
+++ b/Master/MasterData/Skill.xlsx
@@ -391,8 +391,8 @@
   </sheetPr>
   <dimension ref="A3:R32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,7 +405,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="12.83"/>
   </cols>
@@ -1202,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5" t="n">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>20</v>
       </c>
       <c r="P27" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R27" s="5" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R28" s="5" t="n">
         <v>1</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R29" s="5" t="n">
         <v>2</v>
